--- a/Data/fixing_grades.xlsx
+++ b/Data/fixing_grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htsengineers-my.sharepoint.com/personal/lross_hts_uk_com/Documents/Desktop/2564/98 From Git/01 Timber Connection Designer/Timber_Connections/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="14_{6639A567-03CC-42BD-A785-300EEDA5643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20C3C2B-53AE-42ED-8784-48A151A4EB57}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="14_{6639A567-03CC-42BD-A785-300EEDA5643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C6385A-2312-480C-956D-3050A89E6B2A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,15 +358,15 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>4.5999999999999996</v>
       </c>
@@ -385,7 +389,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,7 +415,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -437,7 +441,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
